--- a/Car_BugReports/Car_SearchBugs.xlsx
+++ b/Car_BugReports/Car_SearchBugs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,204 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>steps to produce</t>
+  </si>
+  <si>
+    <t>test data</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_01</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_01</t>
+  </si>
+  <si>
+    <t>The default value for the color drop down list is "Red" not "All"</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page, Check that the colors drop down list default value</t>
+  </si>
+  <si>
+    <t>The default value for the color drop list is "All" and cars are viewed with different colors</t>
+  </si>
+  <si>
+    <t>The default value for the color drop list is "Red" and cars are viewed with different colors</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_04</t>
+  </si>
+  <si>
+    <t>If the user choose a color from the drop down list and click back, the value of the drop down list doesn't change</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list
+3. choose "Gray"
+4. After checking the gray cars, click on the drop down list again
+5. choose "red"
+6. click back and check on the results viewed and the drop down list</t>
+  </si>
+  <si>
+    <t>All gray cars in the database are viewed in the search result page again and the colors down down list value is set to " Gray"</t>
+  </si>
+  <si>
+    <t>All gray cars in the database are viewed in the search result page again and the colors down down list value is still set to " red"</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_02</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_07</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_03</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>The default value for the model drop down list is "Fiat" not "All"</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page, Check that the models drop down list default value</t>
+  </si>
+  <si>
+    <t>The default value for the model drop list is "All" and cars are viewed with different models</t>
+  </si>
+  <si>
+    <t>The default value for the model color drop list is "Fiat" and cars are viewed with different models</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_08</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if the filtering leads to 0 results, the website redirects me to a blank page</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list and choose "Gray"
+3. click on the model drop down list and choose "Fiat"</t>
+  </si>
+  <si>
+    <t>an error message appears having "Sorry, we don't have this car right now, please check it later"</t>
+  </si>
+  <si>
+    <t>the website redirects me to a blank page</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_05</t>
+  </si>
+  <si>
+    <t>All BMW cars in the database are viewed in the search result page again and the colors down down list value is set to " BMW"</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list
+3. choose "BMW"
+4. After checking the BMW cars, click on the drop down list again
+5. choose "Fiat"
+6. click back and check on the results viewed and the drop down list</t>
+  </si>
+  <si>
+    <t>All BMW cars in the database are viewed in the search result page again and the colors down down list value is still set to " Fiat"</t>
+  </si>
+  <si>
+    <t>If the user choose a model from the drop down list and click back, the value of the drop down list doesn't change</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_11</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_06</t>
+  </si>
+  <si>
+    <t>If the guest choose a model from the drop down list and click back, the value of the drop down list doesn't change</t>
+  </si>
+  <si>
+    <t>If the guest choose a color from the drop down list and click back, the value of the drop down list doesn't change</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. After login, In the home page,click the colors drop down list
+3. choose "Gray"
+4. After checking the gray cars, click on the drop down list again
+5. choose "red"
+6. click back and check on the results viewed and the drop down list</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso126</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_18</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_07</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. After login, In the home page,click the colors drop down list
+3. choose "BMW"
+4. After checking the BMW cars, click on the drop down list again
+5. choose "Fiat"
+6. click back and check on the results viewed and the drop down list</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +218,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -40,18 +249,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +615,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="159" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Car_BugReports/Car_SearchBugs.xlsx
+++ b/Car_BugReports/Car_SearchBugs.xlsx
@@ -327,6 +327,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4000501</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17535526" y="2314054"/>
+          <a:ext cx="3962400" cy="1987053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1803637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4591050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17564100" y="8118712"/>
+          <a:ext cx="4524375" cy="2268870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="159" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -635,7 +728,7 @@
     <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="95.5703125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -924,5 +1017,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>